--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.8204234193456</v>
+        <v>170.9020110507419</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.88954236137</v>
+        <v>233.8356711841238</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.198329897464</v>
+        <v>211.5187229168043</v>
       </c>
       <c r="AD2" t="n">
-        <v>127820.4234193456</v>
+        <v>170902.0110507419</v>
       </c>
       <c r="AE2" t="n">
-        <v>174889.54236137</v>
+        <v>233835.6711841238</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.956178697460898e-06</v>
+        <v>4.261817630200795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>158198.329897464</v>
+        <v>211518.7229168043</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.9925876156655</v>
+        <v>144.0740857385108</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.1825138542091</v>
+        <v>197.1285202074145</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.9945686723768</v>
+        <v>178.3148509104905</v>
       </c>
       <c r="AD3" t="n">
-        <v>100992.5876156655</v>
+        <v>144074.0857385108</v>
       </c>
       <c r="AE3" t="n">
-        <v>138182.5138542091</v>
+        <v>197128.5202074145</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442125560858465e-06</v>
+        <v>4.962389930362269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>124994.5686723768</v>
+        <v>178314.8509104905</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2260297797175</v>
+        <v>141.8958135082803</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.0796285400064</v>
+        <v>194.1481120434262</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.9471166232523</v>
+        <v>175.6188887186431</v>
       </c>
       <c r="AD2" t="n">
-        <v>108226.0297797175</v>
+        <v>141895.8135082803</v>
       </c>
       <c r="AE2" t="n">
-        <v>148079.6285400063</v>
+        <v>194148.1120434261</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444976000864477e-06</v>
+        <v>5.043315268875801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>133947.1166232523</v>
+        <v>175618.8887186431</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.13153800376237</v>
+        <v>139.1333149242053</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.8996554377189</v>
+        <v>190.3683396078605</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.2158988486163</v>
+        <v>172.1998524593827</v>
       </c>
       <c r="AD3" t="n">
-        <v>97131.53800376237</v>
+        <v>139133.3149242053</v>
       </c>
       <c r="AE3" t="n">
-        <v>132899.6554377189</v>
+        <v>190368.3396078605</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.617454192314502e-06</v>
+        <v>5.295816852709683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>120215.8988486163</v>
+        <v>172199.8524593827</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.8873559067039</v>
+        <v>126.638458723331</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.2513576679985</v>
+        <v>173.2723261196814</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.7747368660366</v>
+        <v>156.7354585041044</v>
       </c>
       <c r="AD2" t="n">
-        <v>87887.3559067039</v>
+        <v>126638.458723331</v>
       </c>
       <c r="AE2" t="n">
-        <v>120251.3576679985</v>
+        <v>173272.3261196814</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.904769105001074e-06</v>
+        <v>6.041159782469991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>108774.7368660366</v>
+        <v>156735.4585041044</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.99913884412966</v>
+        <v>131.0211255482804</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.5090363651566</v>
+        <v>179.2688842191886</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.6260686840289</v>
+        <v>162.1597135148186</v>
       </c>
       <c r="AD2" t="n">
-        <v>90999.13884412966</v>
+        <v>131021.1255482804</v>
       </c>
       <c r="AE2" t="n">
-        <v>124509.0363651566</v>
+        <v>179268.8842191886</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847077438979659e-06</v>
+        <v>5.814064929649366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>112626.0686840289</v>
+        <v>162159.7135148186</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.42065390866917</v>
+        <v>131.0441198937822</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.8222601061629</v>
+        <v>179.3003460971431</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.6230830013333</v>
+        <v>162.1881727152982</v>
       </c>
       <c r="AD2" t="n">
-        <v>93420.65390866916</v>
+        <v>131044.1198937822</v>
       </c>
       <c r="AE2" t="n">
-        <v>127822.2601061629</v>
+        <v>179300.3460971431</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.841692957672875e-06</v>
+        <v>6.071749582185458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>115623.0830013333</v>
+        <v>162188.1727152982</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.9748293075999</v>
+        <v>153.1751503692088</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.8406573225296</v>
+        <v>209.5809983457636</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.3491980974098</v>
+        <v>189.5788820124823</v>
       </c>
       <c r="AD2" t="n">
-        <v>110974.8293075999</v>
+        <v>153175.1503692088</v>
       </c>
       <c r="AE2" t="n">
-        <v>151840.6573225296</v>
+        <v>209580.9983457636</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.308739973770806e-06</v>
+        <v>4.823766641323868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>137349.1980974098</v>
+        <v>189578.8820124823</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.85670232504238</v>
+        <v>140.1422747326718</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.8918572540857</v>
+        <v>191.7488429299689</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.1134063161933</v>
+        <v>173.4486024819781</v>
       </c>
       <c r="AD3" t="n">
-        <v>97856.70232504238</v>
+        <v>140142.2747326718</v>
       </c>
       <c r="AE3" t="n">
-        <v>133891.8572540857</v>
+        <v>191748.8429299689</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.602786381507088e-06</v>
+        <v>5.252452867465386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>121113.4063161933</v>
+        <v>173448.6024819781</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.30367245854961</v>
+        <v>136.7451626356685</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.2939568083664</v>
+        <v>187.100764288843</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.2406388252908</v>
+        <v>169.2441299427404</v>
       </c>
       <c r="AD2" t="n">
-        <v>92303.67245854961</v>
+        <v>136745.1626356686</v>
       </c>
       <c r="AE2" t="n">
-        <v>126293.9568083664</v>
+        <v>187100.7642888429</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.742279765560144e-06</v>
+        <v>5.996011237254603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>114240.6388252908</v>
+        <v>169244.1299427404</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.90963618517935</v>
+        <v>134.9903594404717</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.4913072292593</v>
+        <v>184.6997651407226</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.2282772060152</v>
+        <v>167.0722787834925</v>
       </c>
       <c r="AD2" t="n">
-        <v>93909.63618517935</v>
+        <v>134990.3594404717</v>
       </c>
       <c r="AE2" t="n">
-        <v>128491.3072292593</v>
+        <v>184699.7651407226</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.762003077951615e-06</v>
+        <v>5.585984677876592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.606770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>116228.2772060152</v>
+        <v>167072.2787834925</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.00388778028275</v>
+        <v>135.0846110355751</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.6202664197666</v>
+        <v>184.8287243312299</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.3449287123759</v>
+        <v>167.1889302898531</v>
       </c>
       <c r="AD3" t="n">
-        <v>94003.88778028275</v>
+        <v>135084.6110355751</v>
       </c>
       <c r="AE3" t="n">
-        <v>128620.2664197666</v>
+        <v>184828.7243312299</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.76215234799227e-06</v>
+        <v>5.586206320480994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.606770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>116344.9287123759</v>
+        <v>167188.9302898531</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.43172445690534</v>
+        <v>139.1389142105667</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.3103837862005</v>
+        <v>190.3760007984832</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.5874278599799</v>
+        <v>172.2067824767249</v>
       </c>
       <c r="AD2" t="n">
-        <v>97431.72445690534</v>
+        <v>139138.9142105667</v>
       </c>
       <c r="AE2" t="n">
-        <v>133310.3837862005</v>
+        <v>190376.0007984832</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.571837189286457e-06</v>
+        <v>5.252181131706162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120587.4278599799</v>
+        <v>172206.7824767249</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.12262187902022</v>
+        <v>137.8298116326815</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.5192118856093</v>
+        <v>188.584828897892</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.9672028916549</v>
+        <v>170.5865575083999</v>
       </c>
       <c r="AD3" t="n">
-        <v>96122.62187902021</v>
+        <v>137829.8116326815</v>
       </c>
       <c r="AE3" t="n">
-        <v>131519.2118856093</v>
+        <v>188584.8288978919</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.672143675473186e-06</v>
+        <v>5.399676049928604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>118967.2028916549</v>
+        <v>170586.5575083999</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.3653318486768</v>
+        <v>167.686621389508</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.2161807114155</v>
+        <v>229.4362331966453</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.0208118856749</v>
+        <v>207.5391611161994</v>
       </c>
       <c r="AD2" t="n">
-        <v>116365.3318486768</v>
+        <v>167686.621389508</v>
       </c>
       <c r="AE2" t="n">
-        <v>159216.1807114155</v>
+        <v>229436.2331966453</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066205683822027e-06</v>
+        <v>4.436102083135023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>144020.8118856749</v>
+        <v>207539.1611161994</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.77417969253948</v>
+        <v>142.5988148796132</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.5154343814251</v>
+        <v>195.109989533915</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.4865929247139</v>
+        <v>176.4889659714435</v>
       </c>
       <c r="AD3" t="n">
-        <v>99774.17969253947</v>
+        <v>142598.8148796132</v>
       </c>
       <c r="AE3" t="n">
-        <v>136515.4343814251</v>
+        <v>195109.989533915</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523921365662051e-06</v>
+        <v>5.098312547490796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>123486.5929247139</v>
+        <v>176488.9659714435</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.02161733896531</v>
+        <v>132.4153226503878</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.9080365503577</v>
+        <v>181.1764862019261</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.8915502550639</v>
+        <v>163.8852566416605</v>
       </c>
       <c r="AD2" t="n">
-        <v>92021.61733896531</v>
+        <v>132415.3226503878</v>
       </c>
       <c r="AE2" t="n">
-        <v>125908.0365503576</v>
+        <v>181176.4862019261</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.8206163607555e-06</v>
+        <v>5.73736080507621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>113891.5502550639</v>
+        <v>163885.2566416605</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.959073557972</v>
+        <v>128.164692663802</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.7177290393087</v>
+        <v>175.3605867297221</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.1011598117345</v>
+        <v>158.6244184524157</v>
       </c>
       <c r="AD2" t="n">
-        <v>88959.07355797201</v>
+        <v>128164.692663802</v>
       </c>
       <c r="AE2" t="n">
-        <v>121717.7290393087</v>
+        <v>175360.5867297222</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.89345826750876e-06</v>
+        <v>5.971578959698241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>110101.1598117345</v>
+        <v>158624.4184524157</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.55630434858226</v>
+        <v>125.2294342174985</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.3761071394126</v>
+        <v>171.3444366290284</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.0286330545682</v>
+        <v>154.9915640806287</v>
       </c>
       <c r="AD2" t="n">
-        <v>94556.30434858226</v>
+        <v>125229.4342174985</v>
       </c>
       <c r="AE2" t="n">
-        <v>129376.1071394126</v>
+        <v>171344.4366290284</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.887117329473999e-06</v>
+        <v>6.073544152492861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>117028.6330545682</v>
+        <v>154991.5640806287</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.19496362764444</v>
+        <v>142.8601597280604</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.7229254082267</v>
+        <v>195.4675730852813</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.769719895624</v>
+        <v>176.8124222505392</v>
       </c>
       <c r="AD2" t="n">
-        <v>99194.96362764444</v>
+        <v>142860.1597280604</v>
       </c>
       <c r="AE2" t="n">
-        <v>135722.9254082267</v>
+        <v>195467.5730852813</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.497536859435224e-06</v>
+        <v>5.699852344443812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>122769.719895624</v>
+        <v>176812.4222505392</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.44683483412473</v>
+        <v>136.8474721756585</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.5945702371635</v>
+        <v>187.2407487150355</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1308077443938</v>
+        <v>169.3707544517665</v>
       </c>
       <c r="AD2" t="n">
-        <v>95446.83483412473</v>
+        <v>136847.4721756585</v>
       </c>
       <c r="AE2" t="n">
-        <v>130594.5702371635</v>
+        <v>187240.7487150355</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680613296650811e-06</v>
+        <v>5.437667434247606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>118130.8077443938</v>
+        <v>169370.7544517666</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.00595421749171</v>
+        <v>136.4065915590255</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.9913379272064</v>
+        <v>186.6375164050784</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.5851470794569</v>
+        <v>168.8250937868297</v>
       </c>
       <c r="AD3" t="n">
-        <v>95005.9542174917</v>
+        <v>136406.5915590255</v>
       </c>
       <c r="AE3" t="n">
-        <v>129991.3379272064</v>
+        <v>186637.5164050784</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.725469401763103e-06</v>
+        <v>5.503936982917185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.606770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>117585.1470794569</v>
+        <v>168825.0937868297</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.5724552013426</v>
+        <v>156.2173694048753</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.394843669513</v>
+        <v>213.743496643592</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.5641778877701</v>
+        <v>193.3441173148703</v>
       </c>
       <c r="AD2" t="n">
-        <v>113572.4552013426</v>
+        <v>156217.3694048753</v>
       </c>
       <c r="AE2" t="n">
-        <v>155394.843669513</v>
+        <v>213743.496643592</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.185822146950577e-06</v>
+        <v>4.626352211105696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>140564.1778877701</v>
+        <v>193344.1173148704</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.90227389258294</v>
+        <v>141.4618472415439</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.322454400156</v>
+        <v>193.5543402520373</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.4074692784989</v>
+        <v>175.0817856736603</v>
       </c>
       <c r="AD3" t="n">
-        <v>98902.27389258295</v>
+        <v>141461.847241544</v>
       </c>
       <c r="AE3" t="n">
-        <v>135322.454400156</v>
+        <v>193554.3402520373</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.561251339994578e-06</v>
+        <v>5.171538852806724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>122407.4692784989</v>
+        <v>175081.7856736603</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.9331482728202</v>
+        <v>163.6272216029373</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.4660686607635</v>
+        <v>223.8819833205829</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.6742193009119</v>
+        <v>202.5150010528679</v>
       </c>
       <c r="AD2" t="n">
-        <v>120933.1482728202</v>
+        <v>163627.2216029373</v>
       </c>
       <c r="AE2" t="n">
-        <v>165466.0686607635</v>
+        <v>223881.9833205829</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.015538850548082e-06</v>
+        <v>5.026723600948431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>149674.2193009119</v>
+        <v>202515.0010528679</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.87231950340733</v>
+        <v>129.4996835279146</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9672724314203</v>
+        <v>177.1871801256403</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.2314485362486</v>
+        <v>160.2766843382679</v>
       </c>
       <c r="AD2" t="n">
-        <v>89872.31950340733</v>
+        <v>129499.6835279145</v>
       </c>
       <c r="AE2" t="n">
-        <v>122967.2724314202</v>
+        <v>177187.1801256403</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.895652580667791e-06</v>
+        <v>5.928819458446095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>111231.4485362486</v>
+        <v>160276.6843382679</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.94107364605846</v>
+        <v>133.6868385566422</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.1660772332713</v>
+        <v>182.9162303601853</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.0295253008718</v>
+        <v>165.4589620592023</v>
       </c>
       <c r="AD2" t="n">
-        <v>92941.07364605846</v>
+        <v>133686.8385566422</v>
       </c>
       <c r="AE2" t="n">
-        <v>127166.0772332713</v>
+        <v>182916.2303601853</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.799782202558737e-06</v>
+        <v>5.672735485151947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.619791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>115029.5253008718</v>
+        <v>165458.9620592023</v>
       </c>
     </row>
   </sheetData>
